--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,13 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\org.qalegend\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F22418D-D077-4B4D-8955-951B293B2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6912" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UserManagementPage" sheetId="4" r:id="rId4"/>
+    <sheet name="AddUserPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +28,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>Reset Password - Demo POS</t>
+  </si>
+  <si>
+    <t>ResetPageTitle</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>adminn</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>admin KL</t>
+  </si>
+  <si>
+    <t>8085@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Adduserpage Title</t>
+  </si>
+  <si>
+    <t>Users - Qalegend</t>
+  </si>
+  <si>
+    <t>Home - QAlegend</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFDD4B39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +122,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +411,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5F0583-1086-4D18-9CA6-9F1A133E4539}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="mailto:8085@gmail.com" xr:uid="{D59FDB94-8F79-401F-BCD8-F37A6265EF05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC81F00-EDD0-4028-B526-6D297236DB85}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A46A8-4AE5-4751-880C-08D78E7EC942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238F1C67-0562-48D6-84EC-1C680B4D2158}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VINITHA EDWIN\IdeaProjects\org.qalegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F22418D-D077-4B4D-8955-951B293B2D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11EABF-6C60-4078-AE25-E7040336980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6912" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="2892" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Login - Demo POS</t>
   </si>
@@ -64,10 +64,31 @@
     <t>Adduserpage Title</t>
   </si>
   <si>
-    <t>Users - Qalegend</t>
-  </si>
-  <si>
     <t>Home - QAlegend</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>Vinitha</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>vinithaedwin.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinitha1234567</t>
+  </si>
+  <si>
+    <t>Add user - QAlegend</t>
   </si>
 </sst>
 </file>
@@ -492,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC81F00-EDD0-4028-B526-6D297236DB85}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -523,34 +544,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739A46A8-4AE5-4751-880C-08D78E7EC942}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238F1C67-0562-48D6-84EC-1C680B4D2158}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
